--- a/Code/Results/Cases/Case_8_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_34/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9940420172791699</v>
+        <v>0.99431166262089</v>
       </c>
       <c r="D2">
-        <v>1.015663793193946</v>
+        <v>1.015822059247313</v>
       </c>
       <c r="E2">
-        <v>1.001259590772221</v>
+        <v>1.001502398236173</v>
       </c>
       <c r="F2">
-        <v>1.014041253753422</v>
+        <v>1.014158065169363</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.041189061726656</v>
+        <v>1.041266264806777</v>
       </c>
       <c r="J2">
-        <v>1.016402402734856</v>
+        <v>1.01666385230257</v>
       </c>
       <c r="K2">
-        <v>1.026909135850786</v>
+        <v>1.027065282053505</v>
       </c>
       <c r="L2">
-        <v>1.012701405343517</v>
+        <v>1.012940841873251</v>
       </c>
       <c r="M2">
-        <v>1.025308377032374</v>
+        <v>1.025423617470857</v>
       </c>
       <c r="N2">
-        <v>1.017845810729722</v>
+        <v>1.018940432889497</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.028602173230846</v>
+        <v>1.028693379843997</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.030097206623467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.030216490973324</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019320051429816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9980196904707603</v>
+        <v>0.9979252564540801</v>
       </c>
       <c r="D3">
-        <v>1.018195494871431</v>
+        <v>1.018031318968643</v>
       </c>
       <c r="E3">
-        <v>1.004397696434022</v>
+        <v>1.004324672405596</v>
       </c>
       <c r="F3">
-        <v>1.017173492804835</v>
+        <v>1.017132638507027</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.041798227513739</v>
+        <v>1.041740755339263</v>
       </c>
       <c r="J3">
-        <v>1.018564486687685</v>
+        <v>1.018472641311066</v>
       </c>
       <c r="K3">
-        <v>1.028600736337885</v>
+        <v>1.028438569153086</v>
       </c>
       <c r="L3">
-        <v>1.014974615466129</v>
+        <v>1.014902515691963</v>
       </c>
       <c r="M3">
-        <v>1.027591251742858</v>
+        <v>1.027550898478425</v>
       </c>
       <c r="N3">
-        <v>1.020010965089762</v>
+        <v>1.019954641002664</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.030408943624039</v>
+        <v>1.030377006264641</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.031290648040573</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.031184572567472</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019589454818885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000544569581773</v>
+        <v>1.000221717092819</v>
       </c>
       <c r="D4">
-        <v>1.019805377604942</v>
+        <v>1.019438053589595</v>
       </c>
       <c r="E4">
-        <v>1.006395499335007</v>
+        <v>1.006123983277939</v>
       </c>
       <c r="F4">
-        <v>1.01916928169457</v>
+        <v>1.019029728007792</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.042174321879771</v>
+        <v>1.042031877418973</v>
       </c>
       <c r="J4">
-        <v>1.019934355464576</v>
+        <v>1.019619753024472</v>
       </c>
       <c r="K4">
-        <v>1.029670504109455</v>
+        <v>1.029307405101616</v>
       </c>
       <c r="L4">
-        <v>1.016417344312096</v>
+        <v>1.016149054874812</v>
       </c>
       <c r="M4">
-        <v>1.029041727037832</v>
+        <v>1.028903780547417</v>
       </c>
       <c r="N4">
-        <v>1.021382779237442</v>
+        <v>1.020597834914182</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.031556912992896</v>
+        <v>1.031447736209264</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.032047988458938</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.031799914678801</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019757326848593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001597903725541</v>
+        <v>1.001180222208264</v>
       </c>
       <c r="D5">
-        <v>1.020479798093943</v>
+        <v>1.020028026262497</v>
       </c>
       <c r="E5">
-        <v>1.007230708689562</v>
+        <v>1.006876710801927</v>
       </c>
       <c r="F5">
-        <v>1.02000251081521</v>
+        <v>1.019822031577388</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.042330100763009</v>
+        <v>1.042152294977723</v>
       </c>
       <c r="J5">
-        <v>1.020506595062818</v>
+        <v>1.020099267265918</v>
       </c>
       <c r="K5">
-        <v>1.030118611577828</v>
+        <v>1.029671898597531</v>
       </c>
       <c r="L5">
-        <v>1.017020210808606</v>
+        <v>1.01667030631494</v>
       </c>
       <c r="M5">
-        <v>1.029646669031747</v>
+        <v>1.0294682124317</v>
       </c>
       <c r="N5">
-        <v>1.02195583148155</v>
+        <v>1.020866701044808</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.032035689895153</v>
+        <v>1.031894451762627</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.032372090026221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.032065605810162</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.019827576766602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001778036013071</v>
+        <v>1.001343993404468</v>
       </c>
       <c r="D6">
-        <v>1.020597805594061</v>
+        <v>1.020131550165857</v>
       </c>
       <c r="E6">
-        <v>1.007374096181417</v>
+        <v>1.007005859375026</v>
       </c>
       <c r="F6">
-        <v>1.020143695201872</v>
+        <v>1.019956157596294</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.042358370285347</v>
+        <v>1.04217448505462</v>
       </c>
       <c r="J6">
-        <v>1.020606114737015</v>
+        <v>1.020182775967318</v>
       </c>
       <c r="K6">
-        <v>1.030198608790911</v>
+        <v>1.029737550618363</v>
       </c>
       <c r="L6">
-        <v>1.017124605590453</v>
+        <v>1.016760607083687</v>
       </c>
       <c r="M6">
-        <v>1.029749560201945</v>
+        <v>1.029564114628061</v>
       </c>
       <c r="N6">
-        <v>1.0220554924851</v>
+        <v>1.020913524747796</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.032117122324173</v>
+        <v>1.031970352837449</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.03243749063539</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.032121734867211</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019840742414987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000569262900306</v>
+        <v>1.000266761597371</v>
       </c>
       <c r="D7">
-        <v>1.019828244766414</v>
+        <v>1.019475247181159</v>
       </c>
       <c r="E7">
-        <v>1.006416366947189</v>
+        <v>1.006163502901916</v>
       </c>
       <c r="F7">
-        <v>1.019185014150946</v>
+        <v>1.019054257943611</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.042182770389498</v>
+        <v>1.04204687987351</v>
       </c>
       <c r="J7">
-        <v>1.019952332713567</v>
+        <v>1.019657557854578</v>
       </c>
       <c r="K7">
-        <v>1.029690185215179</v>
+        <v>1.02934124620019</v>
       </c>
       <c r="L7">
-        <v>1.016434988369012</v>
+        <v>1.016185128056434</v>
       </c>
       <c r="M7">
-        <v>1.029054352708891</v>
+        <v>1.028925101803054</v>
       </c>
       <c r="N7">
-        <v>1.021400782016188</v>
+        <v>1.020671874286271</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.031566905490969</v>
+        <v>1.031464610768815</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.032082226916702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.031846170563895</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019767156192979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9954099100675354</v>
+        <v>0.995625786126592</v>
       </c>
       <c r="D8">
-        <v>1.016542527328445</v>
+        <v>1.016641588610719</v>
       </c>
       <c r="E8">
-        <v>1.002339216337585</v>
+        <v>1.002538750269848</v>
       </c>
       <c r="F8">
-        <v>1.015112101412627</v>
+        <v>1.015205577110258</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04140662982274</v>
+        <v>1.041461028145754</v>
       </c>
       <c r="J8">
-        <v>1.017152104134758</v>
+        <v>1.017361640429459</v>
       </c>
       <c r="K8">
-        <v>1.027502986606795</v>
+        <v>1.027600760333558</v>
       </c>
       <c r="L8">
-        <v>1.013487594412916</v>
+        <v>1.013684442039146</v>
       </c>
       <c r="M8">
-        <v>1.02609118783097</v>
+        <v>1.026183444271604</v>
       </c>
       <c r="N8">
-        <v>1.018596576791606</v>
+        <v>1.019491914205077</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.029221725666659</v>
+        <v>1.029294741616334</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.030540281833378</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.03062055834203</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019433098819354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9859093245365256</v>
+        <v>0.9870271632663347</v>
       </c>
       <c r="D9">
-        <v>1.010506010773246</v>
+        <v>1.011395923972086</v>
       </c>
       <c r="E9">
-        <v>0.9948775476499528</v>
+        <v>0.9958578784136295</v>
       </c>
       <c r="F9">
-        <v>1.007680035137462</v>
+        <v>1.00816560296893</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.039887692016211</v>
+        <v>1.040272098784788</v>
       </c>
       <c r="J9">
-        <v>1.011969664737326</v>
+        <v>1.013046492293655</v>
       </c>
       <c r="K9">
-        <v>1.023430904305542</v>
+        <v>1.024306776943107</v>
       </c>
       <c r="L9">
-        <v>1.008054283410124</v>
+        <v>1.009018518043803</v>
       </c>
       <c r="M9">
-        <v>1.020649726022768</v>
+        <v>1.021127573743171</v>
       </c>
       <c r="N9">
-        <v>1.013406777735796</v>
+        <v>1.017091832452339</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.024915091208602</v>
+        <v>1.025293283950851</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.027657767969412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.028287956126658</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018772078874493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9794068679628994</v>
+        <v>0.9812644108928344</v>
       </c>
       <c r="D10">
-        <v>1.006406179889111</v>
+        <v>1.007922723431375</v>
       </c>
       <c r="E10">
-        <v>0.9898185245703066</v>
+        <v>0.991441667506518</v>
       </c>
       <c r="F10">
-        <v>1.00287936099545</v>
+        <v>1.003687152122519</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.038814403252554</v>
+        <v>1.039462280566443</v>
       </c>
       <c r="J10">
-        <v>1.008462042549941</v>
+        <v>1.010241610783602</v>
       </c>
       <c r="K10">
-        <v>1.020660724148287</v>
+        <v>1.022150389049281</v>
       </c>
       <c r="L10">
-        <v>1.004374074613116</v>
+        <v>1.005967183921562</v>
       </c>
       <c r="M10">
-        <v>1.017196821575116</v>
+        <v>1.017990151498489</v>
       </c>
       <c r="N10">
-        <v>1.009894174322575</v>
+        <v>1.015755240997236</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.022234755177425</v>
+        <v>1.022862598084458</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.025716053612438</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.026781921120581</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018341008068272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9774698675617742</v>
+        <v>0.97966609839232</v>
       </c>
       <c r="D11">
-        <v>1.005275192589734</v>
+        <v>1.00706080289966</v>
       </c>
       <c r="E11">
-        <v>0.9884256183398309</v>
+        <v>0.990348477006825</v>
       </c>
       <c r="F11">
-        <v>1.003384305225332</v>
+        <v>1.004332046004973</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.038625206436546</v>
+        <v>1.039387616498365</v>
       </c>
       <c r="J11">
-        <v>1.007810920346448</v>
+        <v>1.009909959274318</v>
       </c>
       <c r="K11">
-        <v>1.020098307496509</v>
+        <v>1.021850780041179</v>
       </c>
       <c r="L11">
-        <v>1.003569162055441</v>
+        <v>1.00545473143212</v>
       </c>
       <c r="M11">
-        <v>1.018242679482989</v>
+        <v>1.019172726097508</v>
       </c>
       <c r="N11">
-        <v>1.009242127450869</v>
+        <v>1.016019362835158</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.023506329317912</v>
+        <v>1.024241985879861</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.025351667561648</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.026606544086309</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.01833913309771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9770708772334055</v>
+        <v>0.9793415466981908</v>
       </c>
       <c r="D12">
-        <v>1.00508612757665</v>
+        <v>1.00692822190694</v>
       </c>
       <c r="E12">
-        <v>0.9881972101383129</v>
+        <v>0.99018559276586</v>
       </c>
       <c r="F12">
-        <v>1.004449943584348</v>
+        <v>1.005424258273937</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.038655640945826</v>
+        <v>1.039440870199539</v>
       </c>
       <c r="J12">
-        <v>1.00787836919525</v>
+        <v>1.010046693181867</v>
       </c>
       <c r="K12">
-        <v>1.020116529842393</v>
+        <v>1.021923881035691</v>
       </c>
       <c r="L12">
-        <v>1.003554081021647</v>
+        <v>1.005503268165933</v>
       </c>
       <c r="M12">
-        <v>1.019492383407271</v>
+        <v>1.02044827070096</v>
       </c>
       <c r="N12">
-        <v>1.009309672084772</v>
+        <v>1.016291238437472</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.024826015427346</v>
+        <v>1.0255818482193</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.025364551665524</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.02665822884461</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018391757976707</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.977836434215608</v>
+        <v>0.9799597914064152</v>
       </c>
       <c r="D13">
-        <v>1.00562080291508</v>
+        <v>1.007341154543559</v>
       </c>
       <c r="E13">
-        <v>0.9888546072337123</v>
+        <v>0.9907116509829721</v>
       </c>
       <c r="F13">
-        <v>1.006043055537392</v>
+        <v>1.006950023280185</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.038867268969885</v>
+        <v>1.039598287084126</v>
       </c>
       <c r="J13">
-        <v>1.008513169343132</v>
+        <v>1.010541366024618</v>
       </c>
       <c r="K13">
-        <v>1.020597428811457</v>
+        <v>1.022285482072445</v>
       </c>
       <c r="L13">
-        <v>1.004153732962173</v>
+        <v>1.005974350892071</v>
       </c>
       <c r="M13">
-        <v>1.021011740584076</v>
+        <v>1.021901681361077</v>
       </c>
       <c r="N13">
-        <v>1.009945373721677</v>
+        <v>1.016525256146511</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.026307365363927</v>
+        <v>1.027010872753896</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.025702046736126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.026911127724369</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018490311192269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9788893758066241</v>
+        <v>0.9808156777909058</v>
       </c>
       <c r="D14">
-        <v>1.006317484818194</v>
+        <v>1.007877064599546</v>
       </c>
       <c r="E14">
-        <v>0.98970717549841</v>
+        <v>0.9913892947926105</v>
       </c>
       <c r="F14">
-        <v>1.007369553311985</v>
+        <v>1.008190224872126</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.039095022768014</v>
+        <v>1.039755748258493</v>
       </c>
       <c r="J14">
-        <v>1.009204490290264</v>
+        <v>1.011045743127726</v>
       </c>
       <c r="K14">
-        <v>1.021138051875428</v>
+        <v>1.022668720400719</v>
       </c>
       <c r="L14">
-        <v>1.004843072903513</v>
+        <v>1.006492628809171</v>
       </c>
       <c r="M14">
-        <v>1.022170604469606</v>
+        <v>1.022976089412376</v>
       </c>
       <c r="N14">
-        <v>1.01063767642385</v>
+        <v>1.016670955796502</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.027398456852149</v>
+        <v>1.028035113920238</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.026085736707759</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.027183669682716</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018580369210921</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9794119499113147</v>
+        <v>0.9812438861822357</v>
       </c>
       <c r="D15">
-        <v>1.006655403702988</v>
+        <v>1.008138493269456</v>
       </c>
       <c r="E15">
-        <v>0.9901194137434579</v>
+        <v>0.9917181063523546</v>
       </c>
       <c r="F15">
-        <v>1.007857250261926</v>
+        <v>1.008637300262467</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.039194689219574</v>
+        <v>1.039822364604641</v>
       </c>
       <c r="J15">
-        <v>1.009510581309504</v>
+        <v>1.01126235372559</v>
       </c>
       <c r="K15">
-        <v>1.021381654597434</v>
+        <v>1.022837460385394</v>
       </c>
       <c r="L15">
-        <v>1.005157121356893</v>
+        <v>1.006725108756776</v>
       </c>
       <c r="M15">
-        <v>1.022561383250562</v>
+        <v>1.023327114517856</v>
       </c>
       <c r="N15">
-        <v>1.010944202127445</v>
+        <v>1.01671129151821</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.027745188533276</v>
+        <v>1.028350408152437</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.02626391949039</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.027309485008343</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.01861613860317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9819963923348541</v>
+        <v>0.9833989197470385</v>
       </c>
       <c r="D16">
-        <v>1.00827350413346</v>
+        <v>1.00940945367569</v>
       </c>
       <c r="E16">
-        <v>0.9921104032774667</v>
+        <v>0.993331622933652</v>
       </c>
       <c r="F16">
-        <v>1.00961945405448</v>
+        <v>1.010216851344025</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.039616578468077</v>
+        <v>1.040096519551046</v>
       </c>
       <c r="J16">
-        <v>1.010863842721269</v>
+        <v>1.012208085837622</v>
       </c>
       <c r="K16">
-        <v>1.022458723878494</v>
+        <v>1.023574685783237</v>
       </c>
       <c r="L16">
-        <v>1.006586481618544</v>
+        <v>1.007785294672705</v>
       </c>
       <c r="M16">
-        <v>1.023780997477238</v>
+        <v>1.024367912269993</v>
       </c>
       <c r="N16">
-        <v>1.012299385325636</v>
+        <v>1.016832120684838</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028670102773549</v>
+        <v>1.029134002642311</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027028668237416</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.02783424449939</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018751334079914</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9834373883563075</v>
+        <v>0.9846339014349397</v>
       </c>
       <c r="D17">
-        <v>1.009157448064776</v>
+        <v>1.010125908099026</v>
       </c>
       <c r="E17">
-        <v>0.9932011717082176</v>
+        <v>0.9942423317125236</v>
       </c>
       <c r="F17">
-        <v>1.010282838390689</v>
+        <v>1.010793294062097</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.039820953974045</v>
+        <v>1.040230581249765</v>
       </c>
       <c r="J17">
-        <v>1.011547266641954</v>
+        <v>1.01269565755468</v>
       </c>
       <c r="K17">
-        <v>1.023006796838182</v>
+        <v>1.023958692699326</v>
       </c>
       <c r="L17">
-        <v>1.007329468486903</v>
+        <v>1.008352072505764</v>
       </c>
       <c r="M17">
-        <v>1.024112942777077</v>
+        <v>1.024614687805937</v>
       </c>
       <c r="N17">
-        <v>1.012983779786678</v>
+        <v>1.016915216301267</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.028802225023835</v>
+        <v>1.029198846411904</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.027418804401229</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.028108624715643</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018812540043197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9839872878347098</v>
+        <v>0.9851258184196487</v>
       </c>
       <c r="D18">
-        <v>1.009457215809595</v>
+        <v>1.01037890321736</v>
       </c>
       <c r="E18">
-        <v>0.9935779155275951</v>
+        <v>0.9945690811049216</v>
       </c>
       <c r="F18">
-        <v>1.009890777359162</v>
+        <v>1.010378128606715</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.039843744688564</v>
+        <v>1.040234812111488</v>
       </c>
       <c r="J18">
-        <v>1.011669190171025</v>
+        <v>1.012762775593467</v>
       </c>
       <c r="K18">
-        <v>1.023114678001411</v>
+        <v>1.024020856317658</v>
       </c>
       <c r="L18">
-        <v>1.007508431004994</v>
+        <v>1.008482222431037</v>
       </c>
       <c r="M18">
-        <v>1.023540939530346</v>
+        <v>1.024020094725948</v>
       </c>
       <c r="N18">
-        <v>1.013105876461145</v>
+        <v>1.016869465487988</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.02810970779582</v>
+        <v>1.028488552731783</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.027483306428962</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.028139672369159</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018800253692355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9837153870881754</v>
+        <v>0.984914240483664</v>
       </c>
       <c r="D19">
-        <v>1.009231357404555</v>
+        <v>1.010204472193269</v>
       </c>
       <c r="E19">
-        <v>0.9932963281342193</v>
+        <v>0.994340897590292</v>
       </c>
       <c r="F19">
-        <v>1.008440400953435</v>
+        <v>1.008956276772604</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.039707123295978</v>
+        <v>1.040121338228145</v>
       </c>
       <c r="J19">
-        <v>1.011269726820998</v>
+        <v>1.012421499004855</v>
       </c>
       <c r="K19">
-        <v>1.022828926572516</v>
+        <v>1.023785746250122</v>
       </c>
       <c r="L19">
-        <v>1.007166616951581</v>
+        <v>1.008192962527848</v>
       </c>
       <c r="M19">
-        <v>1.022051244807645</v>
+        <v>1.022558459598026</v>
       </c>
       <c r="N19">
-        <v>1.012705845827343</v>
+        <v>1.016654632621544</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.026601852964607</v>
+        <v>1.027003017710209</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.027287739526338</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.027980536000921</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018721267668595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.98112427174551</v>
+        <v>0.9827143389127655</v>
       </c>
       <c r="D20">
-        <v>1.007505215146987</v>
+        <v>1.008804180281916</v>
       </c>
       <c r="E20">
-        <v>0.9911564623428863</v>
+        <v>0.99254408989911</v>
       </c>
       <c r="F20">
-        <v>1.004146667622473</v>
+        <v>1.004837911819297</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.039113972635791</v>
+        <v>1.039668450694703</v>
       </c>
       <c r="J20">
-        <v>1.009402725585749</v>
+        <v>1.010928249012378</v>
       </c>
       <c r="K20">
-        <v>1.021417365795931</v>
+        <v>1.022693965460734</v>
       </c>
       <c r="L20">
-        <v>1.005356617808362</v>
+        <v>1.006719321825266</v>
       </c>
       <c r="M20">
-        <v>1.018116992670956</v>
+        <v>1.018796222486432</v>
       </c>
       <c r="N20">
-        <v>1.010836193236192</v>
+        <v>1.015942180795287</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.022952228873107</v>
+        <v>1.023489779354886</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.026293663958594</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.027212954658561</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018449122861622</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9760507195696237</v>
+        <v>0.9785680064303353</v>
       </c>
       <c r="D21">
-        <v>1.004295924035301</v>
+        <v>1.006342117830352</v>
       </c>
       <c r="E21">
-        <v>0.9872017796827841</v>
+        <v>0.9894109746449994</v>
       </c>
       <c r="F21">
-        <v>1.000037907676639</v>
+        <v>1.001134901885897</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.038230431782253</v>
+        <v>1.039108254340324</v>
       </c>
       <c r="J21">
-        <v>1.006585035148234</v>
+        <v>1.008989947266334</v>
       </c>
       <c r="K21">
-        <v>1.019196363336682</v>
+        <v>1.021204324839184</v>
       </c>
       <c r="L21">
-        <v>1.002429743731707</v>
+        <v>1.004595775242541</v>
       </c>
       <c r="M21">
-        <v>1.015018561921279</v>
+        <v>1.016094805055733</v>
       </c>
       <c r="N21">
-        <v>1.008014501355061</v>
+        <v>1.015676981190748</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.020458288538177</v>
+        <v>1.021310086855522</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.024726567682561</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.026163294514407</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018163948432932</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9728382576993465</v>
+        <v>0.975933408676373</v>
       </c>
       <c r="D22">
-        <v>1.002267152769927</v>
+        <v>1.004783131163536</v>
       </c>
       <c r="E22">
-        <v>0.9847108120567479</v>
+        <v>0.9874325402157991</v>
       </c>
       <c r="F22">
-        <v>0.9975717189277807</v>
+        <v>0.9989219214240425</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.037664302640463</v>
+        <v>1.038745830784379</v>
       </c>
       <c r="J22">
-        <v>1.004818694712648</v>
+        <v>1.007767495651065</v>
       </c>
       <c r="K22">
-        <v>1.017793830316551</v>
+        <v>1.020260425097004</v>
       </c>
       <c r="L22">
-        <v>1.000591359605332</v>
+        <v>1.003257140809641</v>
       </c>
       <c r="M22">
-        <v>1.013191434513657</v>
+        <v>1.01451476555703</v>
       </c>
       <c r="N22">
-        <v>1.006245652513455</v>
+        <v>1.01547000232076</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.019012196410142</v>
+        <v>1.020059555870606</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.02372119961651</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.025480923278253</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017982398330656</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9745378548018828</v>
+        <v>0.9772904413033614</v>
       </c>
       <c r="D23">
-        <v>1.003333729531784</v>
+        <v>1.005572794207547</v>
       </c>
       <c r="E23">
-        <v>0.9860263973264003</v>
+        <v>0.9884427946389834</v>
       </c>
       <c r="F23">
-        <v>0.9988788647108643</v>
+        <v>1.00007897549688</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.03796063482281</v>
+        <v>1.038921389649247</v>
       </c>
       <c r="J23">
-        <v>1.005749228440663</v>
+        <v>1.00837553537959</v>
       </c>
       <c r="K23">
-        <v>1.018528144954447</v>
+        <v>1.020724383001213</v>
       </c>
       <c r="L23">
-        <v>1.001560487607931</v>
+        <v>1.00392852098817</v>
       </c>
       <c r="M23">
-        <v>1.014159236970945</v>
+        <v>1.015336092805202</v>
       </c>
       <c r="N23">
-        <v>1.007177507706097</v>
+        <v>1.015486761160106</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.019778170486157</v>
+        <v>1.020709600147159</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.024230634731269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.025798267874342</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018067090243896</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9810996998168355</v>
+        <v>0.982695684729045</v>
       </c>
       <c r="D24">
-        <v>1.007472594501023</v>
+        <v>1.008776460477819</v>
       </c>
       <c r="E24">
-        <v>0.9911251659943292</v>
+        <v>0.992517991171382</v>
       </c>
       <c r="F24">
-        <v>1.003941409327036</v>
+        <v>1.004635773501901</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.039090386431057</v>
+        <v>1.039647165208218</v>
       </c>
       <c r="J24">
-        <v>1.009345227540173</v>
+        <v>1.010876515910479</v>
       </c>
       <c r="K24">
-        <v>1.021369741621495</v>
+        <v>1.022651184889425</v>
       </c>
       <c r="L24">
-        <v>1.005309947019567</v>
+        <v>1.0066777857602</v>
       </c>
       <c r="M24">
-        <v>1.0178996611455</v>
+        <v>1.018581965923487</v>
       </c>
       <c r="N24">
-        <v>1.010778613536796</v>
+        <v>1.015905122308676</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.02273854732405</v>
+        <v>1.023278559342696</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.0262322287075</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.027152287225813</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018433911016883</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9884315318111571</v>
+        <v>0.9892764440357072</v>
       </c>
       <c r="D25">
-        <v>1.012116184588068</v>
+        <v>1.012772686582375</v>
       </c>
       <c r="E25">
-        <v>0.9968548351332114</v>
+        <v>0.997597865620948</v>
       </c>
       <c r="F25">
-        <v>1.009639692432808</v>
+        <v>1.010006401847277</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04030760628609</v>
+        <v>1.040593830593604</v>
       </c>
       <c r="J25">
-        <v>1.013354593173876</v>
+        <v>1.014170167570065</v>
       </c>
       <c r="K25">
-        <v>1.024529279602444</v>
+        <v>1.025175906737838</v>
       </c>
       <c r="L25">
-        <v>1.009502172736984</v>
+        <v>1.010233586437072</v>
       </c>
       <c r="M25">
-        <v>1.022090185193558</v>
+        <v>1.022451342157039</v>
       </c>
       <c r="N25">
-        <v>1.014793672929579</v>
+        <v>1.017654946889611</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.026055142476643</v>
+        <v>1.026340979821156</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.028463339009278</v>
+        <v>1.028934226067196</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.01894879774378</v>
       </c>
     </row>
   </sheetData>
